--- a/BurpSuite_Extensions.xlsx
+++ b/BurpSuite_Extensions.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="129">
   <si>
     <t>BurpSuite Extensions</t>
   </si>
@@ -868,8 +868,8 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,9 +1303,6 @@
         <v>121</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" t="s">
         <v>70</v>
       </c>
       <c r="D28" t="s">

--- a/BurpSuite_Extensions.xlsx
+++ b/BurpSuite_Extensions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\getch\Documents\Info Sec\_Templates_\Burp Stuff\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98E29A6-570F-424C-8DF0-56BFE726A593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BurpSuite Extensions" sheetId="10" r:id="rId1"/>
@@ -69,9 +75,6 @@
     <t>Collaborator Everywhere</t>
   </si>
   <si>
-    <t>Use with caution</t>
-  </si>
-  <si>
     <t>Command Injection Attacker</t>
   </si>
   <si>
@@ -409,12 +412,15 @@
   </si>
   <si>
     <t>For sending large numbers of HTTP requests. Scans are configured with Python. Use with caution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use with caution. Adds multiple headers to every request with collaborator URLs. May cause issues, although rare. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -552,17 +558,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:E61"/>
-  <sortState ref="A2:D59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:E61" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D59">
     <sortCondition ref="A1:A59"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="BurpSuite Extensions" dataDxfId="1"/>
-    <tableColumn id="5" name="Pro?" dataDxfId="0"/>
-    <tableColumn id="2" name="A Must install?"/>
-    <tableColumn id="3" name="Requires Configuration?"/>
-    <tableColumn id="4" name="Description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="BurpSuite Extensions" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Pro?" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="A Must install?"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Requires Configuration?"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -857,19 +863,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29:C30"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,16 +892,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,13 +909,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -923,10 +929,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -934,16 +940,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -957,10 +963,10 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -971,10 +977,10 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -982,13 +988,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -999,10 +1005,10 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1016,10 +1022,10 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1027,13 +1033,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1047,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1058,10 +1064,10 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1069,7 +1075,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -1078,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1092,91 +1098,91 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>3</v>
@@ -1185,29 +1191,29 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>3</v>
@@ -1216,74 +1222,74 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
         <v>23</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
         <v>81</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>3</v>
@@ -1292,29 +1298,29 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
         <v>121</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>3</v>
@@ -1323,18 +1329,18 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -1343,12 +1349,12 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>3</v>
@@ -1357,46 +1363,46 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" t="s">
         <v>30</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>3</v>
@@ -1405,212 +1411,212 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
         <v>65</v>
-      </c>
-      <c r="E34" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" t="s">
         <v>124</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
         <v>38</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" t="s">
         <v>70</v>
-      </c>
-      <c r="C44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
         <v>41</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>116</v>
-      </c>
-      <c r="E47" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>3</v>
@@ -1619,118 +1625,118 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" t="s">
         <v>44</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" t="s">
         <v>47</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" t="s">
         <v>86</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>3</v>
@@ -1739,58 +1745,58 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>3</v>
@@ -1799,33 +1805,33 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D59">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D59">
     <sortCondition ref="C2:C59"/>
     <sortCondition ref="A2:A59"/>
   </sortState>
@@ -1838,12 +1844,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="16903ae7-d79f-4213-82d3-72b247f98af7">
+      <UserInfo>
+        <DisplayName>Rodriguez, Angel</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2058,23 +2069,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="16903ae7-d79f-4213-82d3-72b247f98af7">
-      <UserInfo>
-        <DisplayName>Rodriguez, Angel</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{497AE595-EED7-436F-8FDB-FA589B049D52}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{882978BD-D0D0-42FB-B17D-D7067E4B527C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16903ae7-d79f-4213-82d3-72b247f98af7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2099,11 +2107,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{882978BD-D0D0-42FB-B17D-D7067E4B527C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{497AE595-EED7-436F-8FDB-FA589B049D52}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16903ae7-d79f-4213-82d3-72b247f98af7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/BurpSuite_Extensions.xlsx
+++ b/BurpSuite_Extensions.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\getch\Documents\Info Sec\_Templates_\Burp Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98E29A6-570F-424C-8DF0-56BFE726A593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABB4F7F-3D8C-403F-BC0D-8834727D2621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BurpSuite Extensions" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BurpSuite Extensions'!$A$1:$E$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BurpSuite Extensions'!$A$1:$E$62</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="132">
   <si>
     <t>BurpSuite Extensions</t>
   </si>
@@ -415,13 +415,45 @@
   </si>
   <si>
     <t xml:space="preserve">Use with caution. Adds multiple headers to every request with collaborator URLs. May cause issues, although rare. </t>
+  </si>
+  <si>
+    <t>Copy As PowerShell Requests</t>
+  </si>
+  <si>
+    <t>Burp Bounty, Scan Check Builder</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can build  custom profiles for vulnerability detection. Comes with default profiles, thus doesn't </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>need</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> configuration, but the power comes from the customization. </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +478,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -558,10 +598,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:E61" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D59">
-    <sortCondition ref="A1:A59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E62" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:E62" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
+    <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="BurpSuite Extensions" dataDxfId="1"/>
@@ -871,11 +911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,123 +1070,123 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="B16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
       <c r="D17" t="s">
         <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1160,384 +1200,381 @@
         <v>69</v>
       </c>
       <c r="E18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="B21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="B23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="B25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
         <v>3</v>
       </c>
       <c r="D26" t="s">
         <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="B28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
         <v>64</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="B30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
       <c r="D32" t="s">
         <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="B34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>69</v>
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="B37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="B38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="B39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="B40" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
       <c r="D41" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>69</v>
@@ -1546,294 +1583,308 @@
         <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="B45" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="B46" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>114</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="B48" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
         <v>115</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="B49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="B50" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="B51" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>69</v>
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
       </c>
       <c r="D52" t="s">
         <v>69</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="B54" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
+      <c r="B55" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C56" t="s">
-        <v>3</v>
-      </c>
       <c r="D56" t="s">
         <v>69</v>
       </c>
       <c r="E56" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="B58" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="B59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="B60" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
         <v>64</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" t="s">
-        <v>69</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="B61" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D61" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="B62" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>117</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D59">
-    <sortCondition ref="C2:C59"/>
-    <sortCondition ref="A2:A59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
+    <sortCondition ref="C2:C60"/>
+    <sortCondition ref="A2:A60"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1844,20 +1895,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="16903ae7-d79f-4213-82d3-72b247f98af7">
-      <UserInfo>
-        <DisplayName>Rodriguez, Angel</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F306FAD7936F2C44925D685513323D7F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="439575adb43509399c9be3e4511a3495">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="16903ae7-d79f-4213-82d3-72b247f98af7" xmlns:ns3="5bb858cb-a0b9-45df-8671-22523941b482" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e307ae8063916f52b9ebba6b67d8c66" ns2:_="" ns3:_="">
     <xsd:import namespace="16903ae7-d79f-4213-82d3-72b247f98af7"/>
@@ -2068,6 +2105,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="16903ae7-d79f-4213-82d3-72b247f98af7">
+      <UserInfo>
+        <DisplayName>Rodriguez, Angel</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2078,16 +2129,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{882978BD-D0D0-42FB-B17D-D7067E4B527C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16903ae7-d79f-4213-82d3-72b247f98af7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BAA58E-B6BE-4624-8B66-0279875543D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2106,6 +2147,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{882978BD-D0D0-42FB-B17D-D7067E4B527C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16903ae7-d79f-4213-82d3-72b247f98af7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{497AE595-EED7-436F-8FDB-FA589B049D52}">
   <ds:schemaRefs>

--- a/BurpSuite_Extensions.xlsx
+++ b/BurpSuite_Extensions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\getch\Documents\Info Sec\_Templates_\Burp Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABB4F7F-3D8C-403F-BC0D-8834727D2621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45D0A54-A303-461A-9EC1-22F8D4A4BF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="BurpSuite Extensions" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BurpSuite Extensions'!$A$1:$E$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BurpSuite Extensions'!$A$1:$E$63</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="134">
   <si>
     <t>BurpSuite Extensions</t>
   </si>
@@ -447,6 +447,12 @@
       </rPr>
       <t xml:space="preserve"> configuration, but the power comes from the customization. </t>
     </r>
+  </si>
+  <si>
+    <t>Log4Shell Scanner</t>
+  </si>
+  <si>
+    <t>Adds an active scan check with two kinds of paylods to test for CVE-2021-44228.</t>
   </si>
 </sst>
 </file>
@@ -598,10 +604,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E62" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:E62" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
-    <sortCondition ref="A1:A60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E63" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:E63" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D61">
+    <sortCondition ref="A1:A61"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="BurpSuite Extensions" dataDxfId="1"/>
@@ -911,11 +917,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,22 +1579,25 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>83</v>
+      <c r="A43" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>69</v>
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
       </c>
       <c r="D43" t="s">
         <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>69</v>
@@ -1597,294 +1606,308 @@
         <v>69</v>
       </c>
       <c r="E44" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="B46" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="B47" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="B49" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
         <v>115</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="B50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="B51" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="B52" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>69</v>
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
       </c>
       <c r="D53" t="s">
         <v>69</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="B55" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2" t="s">
+      <c r="B56" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C57" t="s">
-        <v>3</v>
-      </c>
       <c r="D57" t="s">
         <v>69</v>
       </c>
       <c r="E57" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="B59" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="B60" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="B61" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
         <v>64</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="B62" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D62" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="B63" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>117</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
-    <sortCondition ref="C2:C60"/>
-    <sortCondition ref="A2:A60"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D61">
+    <sortCondition ref="C2:C61"/>
+    <sortCondition ref="A2:A61"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1895,6 +1918,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="16903ae7-d79f-4213-82d3-72b247f98af7">
+      <UserInfo>
+        <DisplayName>Rodriguez, Angel</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F306FAD7936F2C44925D685513323D7F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="439575adb43509399c9be3e4511a3495">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="16903ae7-d79f-4213-82d3-72b247f98af7" xmlns:ns3="5bb858cb-a0b9-45df-8671-22523941b482" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e307ae8063916f52b9ebba6b67d8c66" ns2:_="" ns3:_="">
     <xsd:import namespace="16903ae7-d79f-4213-82d3-72b247f98af7"/>
@@ -2105,20 +2142,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="16903ae7-d79f-4213-82d3-72b247f98af7">
-      <UserInfo>
-        <DisplayName>Rodriguez, Angel</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2129,6 +2152,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{882978BD-D0D0-42FB-B17D-D7067E4B527C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16903ae7-d79f-4213-82d3-72b247f98af7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BAA58E-B6BE-4624-8B66-0279875543D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2147,16 +2180,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{882978BD-D0D0-42FB-B17D-D7067E4B527C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16903ae7-d79f-4213-82d3-72b247f98af7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{497AE595-EED7-436F-8FDB-FA589B049D52}">
   <ds:schemaRefs>
